--- a/Most_Victories.xlsx
+++ b/Most_Victories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job Hunt/Projects/Python/The Masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809FEA6-88FA-4346-8F9B-ADD0B2CFBE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D2D730-7CC4-9341-AFC7-7F6A694763D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2980" windowWidth="28800" windowHeight="17500" xr2:uid="{DF0FA514-08AB-F746-80CB-0722B88E922F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{DF0FA514-08AB-F746-80CB-0722B88E922F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Golfer Name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Bubba Watson</t>
+  </si>
+  <si>
+    <t>Scottie Scheffler</t>
   </si>
 </sst>
 </file>
@@ -148,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,13 +447,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F705C0-90BE-8F41-A25B-96575F68ACBA}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -596,6 +602,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
